--- a/2주차/시퀸스 다이얼그램.xlsx
+++ b/2주차/시퀸스 다이얼그램.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Github_gameServerLessonsCodes\trunk\Demo08\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21345" windowHeight="11715" tabRatio="683" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21345" windowHeight="11715" tabRatio="683" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="로그인" sheetId="1" r:id="rId1"/>
@@ -21,6 +16,7 @@
     <sheet name="방 입장" sheetId="5" r:id="rId7"/>
     <sheet name="방 나가기" sheetId="6" r:id="rId8"/>
     <sheet name="방 채팅" sheetId="7" r:id="rId9"/>
+    <sheet name="로비채팅" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,8 +76,36 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1244,6 +1268,1480 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
             <a:t>로 변경</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19053</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>90490</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>172613</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1390653" y="1319213"/>
+          <a:ext cx="71437" cy="1368000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>309590</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450877</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>198446</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Group 7"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3738590" y="311156"/>
+          <a:ext cx="1512887" cy="935040"/>
+          <a:chOff x="427" y="270"/>
+          <a:chExt cx="91" cy="96"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 8"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="429" y="345"/>
+            <a:ext cx="89" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1200"/>
+              <a:t>   </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1200"/>
+              <a:t>채팅 서버</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Picture 9"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="427" y="270"/>
+            <a:ext cx="78" cy="78"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>178596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Text Box 10"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2847976" y="1574791"/>
+          <a:ext cx="1495424" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr>
+            <a:spcBef>
+              <a:spcPct val="50000"/>
+            </a:spcBef>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200"/>
+            <a:t>ROBBY_CHAT_REQ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>669925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 4"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="962025" y="295275"/>
+          <a:ext cx="1079500" cy="1025525"/>
+          <a:chOff x="1247" y="2976"/>
+          <a:chExt cx="680" cy="646"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="Picture 5"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1338" y="2976"/>
+            <a:ext cx="456" cy="462"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Text Box 6"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1247" y="3430"/>
+            <a:ext cx="680" cy="192"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr>
+              <a:spcBef>
+                <a:spcPct val="50000"/>
+              </a:spcBef>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1400"/>
+              <a:t>클라이언트</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>195294</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266732</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>132862</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4310094" y="1319212"/>
+          <a:ext cx="71438" cy="2376000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>90490</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>153980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>153980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="직선 화살표 연결선 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1462090" y="1830380"/>
+          <a:ext cx="2814634" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>90490</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>93662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>93662</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="직선 화살표 연결선 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1462090" y="2398712"/>
+          <a:ext cx="2833684" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>26213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>96868</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Text Box 10"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1533525" y="2121713"/>
+          <a:ext cx="1409699" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr>
+            <a:spcBef>
+              <a:spcPct val="50000"/>
+            </a:spcBef>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200"/>
+            <a:t>ROBBY_CHAT_RES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 4"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2667000"/>
+          <a:ext cx="1600200" cy="1123950"/>
+          <a:chOff x="1037" y="2976"/>
+          <a:chExt cx="1008" cy="708"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="Picture 5"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1338" y="2976"/>
+            <a:ext cx="456" cy="462"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Text Box 6"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1037" y="3430"/>
+            <a:ext cx="1008" cy="254"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr>
+              <a:spcBef>
+                <a:spcPct val="50000"/>
+              </a:spcBef>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1400"/>
+              <a:t>방의 다른 유저</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>195259</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="직선 화살표 연결선 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1295400" y="3353574"/>
+          <a:ext cx="3014659" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>52385</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>90484</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Text Box 10"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1423985" y="3076575"/>
+          <a:ext cx="1409699" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr>
+            <a:spcBef>
+              <a:spcPct val="50000"/>
+            </a:spcBef>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200"/>
+            <a:t>ROBBY_CHAT_NTF</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13770,7 +15268,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13782,6 +15280,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13906,7 +15420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
